--- a/Code/Results/Cases/Case_3_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.033764949541504</v>
+        <v>1.064958020203268</v>
       </c>
       <c r="D2">
-        <v>1.047081068463863</v>
+        <v>1.064480623556905</v>
       </c>
       <c r="E2">
-        <v>1.039552855674408</v>
+        <v>1.069849361753674</v>
       </c>
       <c r="F2">
-        <v>1.041498271652408</v>
+        <v>1.080348728488757</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062817515209973</v>
+        <v>1.055012512307365</v>
       </c>
       <c r="J2">
-        <v>1.054980613169515</v>
+        <v>1.069915595348227</v>
       </c>
       <c r="K2">
-        <v>1.057921258390405</v>
+        <v>1.067196445904916</v>
       </c>
       <c r="L2">
-        <v>1.05048734357023</v>
+        <v>1.072550770525806</v>
       </c>
       <c r="M2">
-        <v>1.05240822845269</v>
+        <v>1.08302239663545</v>
       </c>
       <c r="N2">
-        <v>1.056478806648183</v>
+        <v>1.071434998214656</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041138477472331</v>
+        <v>1.066365397558997</v>
       </c>
       <c r="D3">
-        <v>1.052971763111139</v>
+        <v>1.065604393985824</v>
       </c>
       <c r="E3">
-        <v>1.046431402880938</v>
+        <v>1.071196844990688</v>
       </c>
       <c r="F3">
-        <v>1.04942201637839</v>
+        <v>1.081946683529981</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066086889809963</v>
+        <v>1.055533768733501</v>
       </c>
       <c r="J3">
-        <v>1.060567203314636</v>
+        <v>1.070976219761236</v>
       </c>
       <c r="K3">
-        <v>1.062968919586001</v>
+        <v>1.068134656960493</v>
       </c>
       <c r="L3">
-        <v>1.056502751643913</v>
+        <v>1.073713187149673</v>
       </c>
       <c r="M3">
-        <v>1.059459298850207</v>
+        <v>1.084436701632795</v>
       </c>
       <c r="N3">
-        <v>1.062073330392101</v>
+        <v>1.072497128835986</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045761616556778</v>
+        <v>1.067274332777823</v>
       </c>
       <c r="D4">
-        <v>1.056666944318472</v>
+        <v>1.06633000166604</v>
       </c>
       <c r="E4">
-        <v>1.050744737646049</v>
+        <v>1.072066849455243</v>
       </c>
       <c r="F4">
-        <v>1.054394939220126</v>
+        <v>1.082979134664511</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068123694972017</v>
+        <v>1.055868855065068</v>
       </c>
       <c r="J4">
-        <v>1.064062998318955</v>
+        <v>1.071660313729014</v>
       </c>
       <c r="K4">
-        <v>1.066126369892742</v>
+        <v>1.068739609485971</v>
       </c>
       <c r="L4">
-        <v>1.060266992203839</v>
+        <v>1.074462900842979</v>
       </c>
       <c r="M4">
-        <v>1.063878366515078</v>
+        <v>1.085349824793511</v>
       </c>
       <c r="N4">
-        <v>1.0655740898263</v>
+        <v>1.073182194295665</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047671756798597</v>
+        <v>1.067656041891499</v>
       </c>
       <c r="D5">
-        <v>1.058194025774957</v>
+        <v>1.066634682012203</v>
       </c>
       <c r="E5">
-        <v>1.052526971593466</v>
+        <v>1.07243214994586</v>
       </c>
       <c r="F5">
-        <v>1.056450754748161</v>
+        <v>1.083412818872105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068962066255073</v>
+        <v>1.05600920150832</v>
       </c>
       <c r="J5">
-        <v>1.065505649722993</v>
+        <v>1.071947385696139</v>
       </c>
       <c r="K5">
-        <v>1.067429110222228</v>
+        <v>1.06899342592022</v>
       </c>
       <c r="L5">
-        <v>1.0618204659416</v>
+        <v>1.074777501229377</v>
       </c>
       <c r="M5">
-        <v>1.065703725577975</v>
+        <v>1.085733224482051</v>
       </c>
       <c r="N5">
-        <v>1.067018789960806</v>
+        <v>1.073469673937911</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047990572791017</v>
+        <v>1.067720108864071</v>
       </c>
       <c r="D6">
-        <v>1.058448924643306</v>
+        <v>1.066685817922914</v>
       </c>
       <c r="E6">
-        <v>1.052824443753817</v>
+        <v>1.072493459362536</v>
       </c>
       <c r="F6">
-        <v>1.056793953024525</v>
+        <v>1.083485615601862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069101808533256</v>
+        <v>1.056032735666748</v>
       </c>
       <c r="J6">
-        <v>1.065746337196458</v>
+        <v>1.071995555949995</v>
       </c>
       <c r="K6">
-        <v>1.067646438314438</v>
+        <v>1.069036013311411</v>
       </c>
       <c r="L6">
-        <v>1.062079645357057</v>
+        <v>1.07483029024524</v>
       </c>
       <c r="M6">
-        <v>1.066008363333883</v>
+        <v>1.085797571217655</v>
       </c>
       <c r="N6">
-        <v>1.067259819238091</v>
+        <v>1.073517912599053</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045787268761509</v>
+        <v>1.06727943478474</v>
       </c>
       <c r="D7">
-        <v>1.05668745097359</v>
+        <v>1.066334074247971</v>
       </c>
       <c r="E7">
-        <v>1.0507686718016</v>
+        <v>1.072071732375107</v>
       </c>
       <c r="F7">
-        <v>1.054422543191212</v>
+        <v>1.08298493097105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068134966488997</v>
+        <v>1.055870732435568</v>
       </c>
       <c r="J7">
-        <v>1.064082379184698</v>
+        <v>1.071664151639261</v>
       </c>
       <c r="K7">
-        <v>1.066143872303916</v>
+        <v>1.068743002974127</v>
       </c>
       <c r="L7">
-        <v>1.060287861705483</v>
+        <v>1.074467106816493</v>
       </c>
       <c r="M7">
-        <v>1.063902882007073</v>
+        <v>1.08535494966452</v>
       </c>
       <c r="N7">
-        <v>1.065593498215095</v>
+        <v>1.073186037656185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.036288785022255</v>
+        <v>1.065434013067881</v>
       </c>
       <c r="D8">
-        <v>1.049096931636372</v>
+        <v>1.06486073048752</v>
       </c>
       <c r="E8">
-        <v>1.04190712991747</v>
+        <v>1.070305149300568</v>
       </c>
       <c r="F8">
-        <v>1.044209424343468</v>
+        <v>1.080889087447237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063939302586838</v>
+        <v>1.055189131096504</v>
       </c>
       <c r="J8">
-        <v>1.056894254233788</v>
+        <v>1.07027449754229</v>
       </c>
       <c r="K8">
-        <v>1.059650518870012</v>
+        <v>1.06751396333442</v>
       </c>
       <c r="L8">
-        <v>1.052547856460292</v>
+        <v>1.072944125505226</v>
       </c>
       <c r="M8">
-        <v>1.054822085152669</v>
+        <v>1.083500792061199</v>
       </c>
       <c r="N8">
-        <v>1.058395165302266</v>
+        <v>1.071794410091001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01831688614179</v>
+        <v>1.062168546040504</v>
       </c>
       <c r="D9">
-        <v>1.034753518075556</v>
+        <v>1.062252427949546</v>
       </c>
       <c r="E9">
-        <v>1.025146661813758</v>
+        <v>1.067177271818839</v>
       </c>
       <c r="F9">
-        <v>1.02492438411294</v>
+        <v>1.077183815858336</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055896288744045</v>
+        <v>1.053971059045149</v>
       </c>
       <c r="J9">
-        <v>1.043239004831986</v>
+        <v>1.067808632961241</v>
       </c>
       <c r="K9">
-        <v>1.047306830124185</v>
+        <v>1.065331679782367</v>
       </c>
       <c r="L9">
-        <v>1.037844513839155</v>
+        <v>1.070241390601106</v>
       </c>
       <c r="M9">
-        <v>1.037625621305488</v>
+        <v>1.080217651094373</v>
       </c>
       <c r="N9">
-        <v>1.044720523880034</v>
+        <v>1.069325043699408</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00534600089329</v>
+        <v>1.059981957731912</v>
       </c>
       <c r="D10">
-        <v>1.024420484141177</v>
+        <v>1.060505104877066</v>
       </c>
       <c r="E10">
-        <v>1.01305737015233</v>
+        <v>1.06508152414807</v>
       </c>
       <c r="F10">
-        <v>1.011032258570761</v>
+        <v>1.074704934417485</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050022985204049</v>
+        <v>1.053147377318359</v>
       </c>
       <c r="J10">
-        <v>1.033349107219679</v>
+        <v>1.066152849521768</v>
       </c>
       <c r="K10">
-        <v>1.038362386958507</v>
+        <v>1.063865375206194</v>
       </c>
       <c r="L10">
-        <v>1.027194805031212</v>
+        <v>1.068426337294965</v>
       </c>
       <c r="M10">
-        <v>1.025205138743052</v>
+        <v>1.078017715025328</v>
       </c>
       <c r="N10">
-        <v>1.03481658147873</v>
+        <v>1.06766690885753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9994523610340071</v>
+        <v>1.059032756698699</v>
       </c>
       <c r="D11">
-        <v>1.019731609139508</v>
+        <v>1.05974641492021</v>
       </c>
       <c r="E11">
-        <v>1.007566812878329</v>
+        <v>1.064171450579313</v>
       </c>
       <c r="F11">
-        <v>1.004726294112477</v>
+        <v>1.073629365575073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047338784588736</v>
+        <v>1.052787909365476</v>
       </c>
       <c r="J11">
-        <v>1.02884794018758</v>
+        <v>1.065432978733627</v>
       </c>
       <c r="K11">
-        <v>1.03429076873688</v>
+        <v>1.063227662697323</v>
       </c>
       <c r="L11">
-        <v>1.022347427213852</v>
+        <v>1.067637166302906</v>
       </c>
       <c r="M11">
-        <v>1.019559626484616</v>
+        <v>1.077062355971542</v>
       </c>
       <c r="N11">
-        <v>1.030309022273154</v>
+        <v>1.0669460157703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9972173309632565</v>
+        <v>1.058679812412419</v>
       </c>
       <c r="D12">
-        <v>1.017954549891708</v>
+        <v>1.059464283556549</v>
       </c>
       <c r="E12">
-        <v>1.005485096507671</v>
+        <v>1.063833009076167</v>
       </c>
       <c r="F12">
-        <v>1.002335836722918</v>
+        <v>1.073229510765094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046318600889336</v>
+        <v>1.052653961068846</v>
       </c>
       <c r="J12">
-        <v>1.027139927027822</v>
+        <v>1.065165142979939</v>
       </c>
       <c r="K12">
-        <v>1.032745667818446</v>
+        <v>1.062990362070303</v>
       </c>
       <c r="L12">
-        <v>1.020507959837823</v>
+        <v>1.067343537883621</v>
       </c>
       <c r="M12">
-        <v>1.017418422196256</v>
+        <v>1.07670706687356</v>
       </c>
       <c r="N12">
-        <v>1.028598583538798</v>
+        <v>1.06667779965912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9976989027429582</v>
+        <v>1.058755536994096</v>
       </c>
       <c r="D13">
-        <v>1.018337392787853</v>
+        <v>1.059524816283523</v>
       </c>
       <c r="E13">
-        <v>1.005933612673763</v>
+        <v>1.063905624156334</v>
       </c>
       <c r="F13">
-        <v>1.002850855489342</v>
+        <v>1.073315296565573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04653851603397</v>
+        <v>1.052682712769922</v>
       </c>
       <c r="J13">
-        <v>1.027507990855361</v>
+        <v>1.065222614851716</v>
       </c>
       <c r="K13">
-        <v>1.033078628611248</v>
+        <v>1.063041283229087</v>
       </c>
       <c r="L13">
-        <v>1.020904355058345</v>
+        <v>1.067406544717366</v>
       </c>
       <c r="M13">
-        <v>1.017879789573673</v>
+        <v>1.076783297034731</v>
       </c>
       <c r="N13">
-        <v>1.028967170059189</v>
+        <v>1.066735353147547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9992685750945255</v>
+        <v>1.059003589789421</v>
       </c>
       <c r="D14">
-        <v>1.019585458927119</v>
+        <v>1.059723100422126</v>
       </c>
       <c r="E14">
-        <v>1.007395624214178</v>
+        <v>1.064143483103669</v>
       </c>
       <c r="F14">
-        <v>1.004529708450428</v>
+        <v>1.073596320462586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047254940535189</v>
+        <v>1.0527768458687</v>
       </c>
       <c r="J14">
-        <v>1.028707511483152</v>
+        <v>1.065410848439419</v>
       </c>
       <c r="K14">
-        <v>1.034163735815728</v>
+        <v>1.063208056075845</v>
       </c>
       <c r="L14">
-        <v>1.022196192430709</v>
+        <v>1.067612905035612</v>
       </c>
       <c r="M14">
-        <v>1.019383561159216</v>
+        <v>1.077032996414846</v>
       </c>
       <c r="N14">
-        <v>1.030168394143859</v>
+        <v>1.066923854048535</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00022948708158</v>
+        <v>1.059156374165467</v>
       </c>
       <c r="D15">
-        <v>1.02034964043564</v>
+        <v>1.059845227207817</v>
       </c>
       <c r="E15">
-        <v>1.008290691129931</v>
+        <v>1.064289982625692</v>
       </c>
       <c r="F15">
-        <v>1.005557580942474</v>
+        <v>1.073769423102103</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047693221951213</v>
+        <v>1.052834787823142</v>
       </c>
       <c r="J15">
-        <v>1.029441691118845</v>
+        <v>1.065526766356977</v>
       </c>
       <c r="K15">
-        <v>1.034827877297225</v>
+        <v>1.063310753721035</v>
       </c>
       <c r="L15">
-        <v>1.022986864240262</v>
+        <v>1.067739984574674</v>
       </c>
       <c r="M15">
-        <v>1.020304095596528</v>
+        <v>1.077186787675459</v>
       </c>
       <c r="N15">
-        <v>1.030903616398846</v>
+        <v>1.067039936582833</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005730955261277</v>
+        <v>1.060044901866628</v>
       </c>
       <c r="D16">
-        <v>1.024726887966394</v>
+        <v>1.060555412094982</v>
       </c>
       <c r="E16">
-        <v>1.01341605445953</v>
+        <v>1.065141867176518</v>
       </c>
       <c r="F16">
-        <v>1.011444273829533</v>
+        <v>1.074776269191505</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050197994004268</v>
+        <v>1.053171174515823</v>
       </c>
       <c r="J16">
-        <v>1.033642961516578</v>
+        <v>1.066200563147686</v>
       </c>
       <c r="K16">
-        <v>1.038628185370125</v>
+        <v>1.063907638713095</v>
       </c>
       <c r="L16">
-        <v>1.027511251387335</v>
+        <v>1.068478642988244</v>
       </c>
       <c r="M16">
-        <v>1.025573847571618</v>
+        <v>1.078081059824516</v>
       </c>
       <c r="N16">
-        <v>1.035110853082436</v>
+        <v>1.067714690242269</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009104872178069</v>
+        <v>1.060601604505842</v>
       </c>
       <c r="D17">
-        <v>1.027413066403951</v>
+        <v>1.061000328845234</v>
       </c>
       <c r="E17">
-        <v>1.016560019147972</v>
+        <v>1.065675529235069</v>
       </c>
       <c r="F17">
-        <v>1.015056069676644</v>
+        <v>1.075407241530764</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051730111725163</v>
+        <v>1.05338142633641</v>
       </c>
       <c r="J17">
-        <v>1.036217604609535</v>
+        <v>1.066622435121914</v>
       </c>
       <c r="K17">
-        <v>1.040956931505756</v>
+        <v>1.064281296787898</v>
       </c>
       <c r="L17">
-        <v>1.030283790456565</v>
+        <v>1.068941110394129</v>
       </c>
       <c r="M17">
-        <v>1.028805162782301</v>
+        <v>1.078641264081827</v>
       </c>
       <c r="N17">
-        <v>1.037689152463901</v>
+        <v>1.06813716132309</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011046393980647</v>
+        <v>1.060926089382773</v>
       </c>
       <c r="D18">
-        <v>1.02895939795825</v>
+        <v>1.061259640284281</v>
       </c>
       <c r="E18">
-        <v>1.018369444568298</v>
+        <v>1.065986554930951</v>
       </c>
       <c r="F18">
-        <v>1.017135066297503</v>
+        <v>1.075775065780761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052610309844723</v>
+        <v>1.053503791973589</v>
       </c>
       <c r="J18">
-        <v>1.037698480725121</v>
+        <v>1.066868226042268</v>
       </c>
       <c r="K18">
-        <v>1.042296300710619</v>
+        <v>1.064498976163734</v>
       </c>
       <c r="L18">
-        <v>1.031878455847707</v>
+        <v>1.069210547666449</v>
       </c>
       <c r="M18">
-        <v>1.030664438869943</v>
+        <v>1.078967754928798</v>
       </c>
       <c r="N18">
-        <v>1.039172131593431</v>
+        <v>1.068383301294744</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011704039266201</v>
+        <v>1.061036691542549</v>
       </c>
       <c r="D19">
-        <v>1.029483273850207</v>
+        <v>1.061348024890753</v>
       </c>
       <c r="E19">
-        <v>1.018982382139002</v>
+        <v>1.066092564458832</v>
       </c>
       <c r="F19">
-        <v>1.017839377690943</v>
+        <v>1.075900448833916</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052908206898608</v>
+        <v>1.053545469699059</v>
       </c>
       <c r="J19">
-        <v>1.03819997172952</v>
+        <v>1.066951987139652</v>
       </c>
       <c r="K19">
-        <v>1.042749858020021</v>
+        <v>1.064573153755228</v>
       </c>
       <c r="L19">
-        <v>1.032418475487372</v>
+        <v>1.069302366117606</v>
       </c>
       <c r="M19">
-        <v>1.03129419322167</v>
+        <v>1.079079034905804</v>
       </c>
       <c r="N19">
-        <v>1.039674334772577</v>
+        <v>1.068467181342494</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008745644955853</v>
+        <v>1.060541899473789</v>
       </c>
       <c r="D20">
-        <v>1.027127003730506</v>
+        <v>1.0609526143234</v>
       </c>
       <c r="E20">
-        <v>1.016225250972792</v>
+        <v>1.065618298306388</v>
       </c>
       <c r="F20">
-        <v>1.014671454000917</v>
+        <v>1.0753395660966</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051567135583223</v>
+        <v>1.05335889633366</v>
       </c>
       <c r="J20">
-        <v>1.035943550198626</v>
+        <v>1.066577201251166</v>
       </c>
       <c r="K20">
-        <v>1.040709058618045</v>
+        <v>1.064241234687507</v>
       </c>
       <c r="L20">
-        <v>1.029988675160621</v>
+        <v>1.068891524364293</v>
       </c>
       <c r="M20">
-        <v>1.028461137760733</v>
+        <v>1.078581187135367</v>
       </c>
       <c r="N20">
-        <v>1.037414708864294</v>
+        <v>1.068091863215058</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9988076489427915</v>
+        <v>1.058930554676831</v>
       </c>
       <c r="D21">
-        <v>1.019218939449797</v>
+        <v>1.059664719575174</v>
       </c>
       <c r="E21">
-        <v>1.006966298983429</v>
+        <v>1.064073450676431</v>
       </c>
       <c r="F21">
-        <v>1.004036696273585</v>
+        <v>1.073513575418504</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047044627662901</v>
+        <v>1.052749137806148</v>
       </c>
       <c r="J21">
-        <v>1.028355306591026</v>
+        <v>1.065355430645214</v>
       </c>
       <c r="K21">
-        <v>1.033845127220846</v>
+        <v>1.06315895743358</v>
       </c>
       <c r="L21">
-        <v>1.021816883770036</v>
+        <v>1.067552150801214</v>
       </c>
       <c r="M21">
-        <v>1.018941993660817</v>
+        <v>1.076959478014816</v>
       </c>
       <c r="N21">
-        <v>1.029815689080388</v>
+        <v>1.066868357554706</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9922912869331628</v>
+        <v>1.05791530015575</v>
       </c>
       <c r="D22">
-        <v>1.014040090465768</v>
+        <v>1.058853113575681</v>
       </c>
       <c r="E22">
-        <v>1.000897890407759</v>
+        <v>1.063099826900441</v>
       </c>
       <c r="F22">
-        <v>0.9970689546533718</v>
+        <v>1.072363526383903</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044066009378124</v>
+        <v>1.05236329233646</v>
       </c>
       <c r="J22">
-        <v>1.023373591848267</v>
+        <v>1.064584684329359</v>
       </c>
       <c r="K22">
-        <v>1.029338448817764</v>
+        <v>1.062476020071286</v>
       </c>
       <c r="L22">
-        <v>1.016451580874452</v>
+        <v>1.066707164412964</v>
       </c>
       <c r="M22">
-        <v>1.01269870060536</v>
+        <v>1.07593737435002</v>
       </c>
       <c r="N22">
-        <v>1.024826899731283</v>
+        <v>1.066096516690677</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9957727094285338</v>
+        <v>1.058453711512544</v>
       </c>
       <c r="D23">
-        <v>1.016806269110304</v>
+        <v>1.059283539333874</v>
       </c>
       <c r="E23">
-        <v>1.004139708363848</v>
+        <v>1.06361618587271</v>
       </c>
       <c r="F23">
-        <v>1.000791017854314</v>
+        <v>1.072973380021288</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045658572729651</v>
+        <v>1.052568071411702</v>
       </c>
       <c r="J23">
-        <v>1.026035659808506</v>
+        <v>1.064993517604655</v>
       </c>
       <c r="K23">
-        <v>1.031746706946026</v>
+        <v>1.062838293985664</v>
       </c>
       <c r="L23">
-        <v>1.019318679019748</v>
+        <v>1.067155382414345</v>
       </c>
       <c r="M23">
-        <v>1.016034372214657</v>
+        <v>1.076479448304742</v>
       </c>
       <c r="N23">
-        <v>1.027492748133369</v>
+        <v>1.066505930556117</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008908045628677</v>
+        <v>1.060568878319769</v>
       </c>
       <c r="D24">
-        <v>1.027256326166524</v>
+        <v>1.060974175083184</v>
       </c>
       <c r="E24">
-        <v>1.016376593407519</v>
+        <v>1.065644159273341</v>
       </c>
       <c r="F24">
-        <v>1.014845330547269</v>
+        <v>1.075370146365139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051640818937071</v>
+        <v>1.053369077508626</v>
       </c>
       <c r="J24">
-        <v>1.036067447846118</v>
+        <v>1.066597641355213</v>
       </c>
       <c r="K24">
-        <v>1.040821120051284</v>
+        <v>1.064259337857751</v>
       </c>
       <c r="L24">
-        <v>1.030122094363818</v>
+        <v>1.068913931121412</v>
       </c>
       <c r="M24">
-        <v>1.028616666348878</v>
+        <v>1.078608334146102</v>
       </c>
       <c r="N24">
-        <v>1.037538782460657</v>
+        <v>1.068112332346396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02312459443977</v>
+        <v>1.063014406919318</v>
       </c>
       <c r="D25">
-        <v>1.038587819626704</v>
+        <v>1.062928202432302</v>
       </c>
       <c r="E25">
-        <v>1.029629293469553</v>
+        <v>1.067987719455861</v>
       </c>
       <c r="F25">
-        <v>1.030078870900821</v>
+        <v>1.078143210574551</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058059716932688</v>
+        <v>1.054287995505564</v>
       </c>
       <c r="J25">
-        <v>1.046898021603479</v>
+        <v>1.068448183909369</v>
       </c>
       <c r="K25">
-        <v>1.050615249817837</v>
+        <v>1.065897847022674</v>
       </c>
       <c r="L25">
-        <v>1.041784427710839</v>
+        <v>1.070942412984806</v>
       </c>
       <c r="M25">
-        <v>1.042227529348859</v>
+        <v>1.0810683546196</v>
       </c>
       <c r="N25">
-        <v>1.048384736875037</v>
+        <v>1.06996550288324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064958020203268</v>
+        <v>1.033764949541503</v>
       </c>
       <c r="D2">
-        <v>1.064480623556905</v>
+        <v>1.047081068463863</v>
       </c>
       <c r="E2">
-        <v>1.069849361753674</v>
+        <v>1.039552855674407</v>
       </c>
       <c r="F2">
-        <v>1.080348728488757</v>
+        <v>1.041498271652408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055012512307365</v>
+        <v>1.062817515209973</v>
       </c>
       <c r="J2">
-        <v>1.069915595348227</v>
+        <v>1.054980613169515</v>
       </c>
       <c r="K2">
-        <v>1.067196445904916</v>
+        <v>1.057921258390404</v>
       </c>
       <c r="L2">
-        <v>1.072550770525806</v>
+        <v>1.05048734357023</v>
       </c>
       <c r="M2">
-        <v>1.08302239663545</v>
+        <v>1.05240822845269</v>
       </c>
       <c r="N2">
-        <v>1.071434998214656</v>
+        <v>1.056478806648183</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066365397558997</v>
+        <v>1.041138477472328</v>
       </c>
       <c r="D3">
-        <v>1.065604393985824</v>
+        <v>1.052971763111137</v>
       </c>
       <c r="E3">
-        <v>1.071196844990688</v>
+        <v>1.046431402880936</v>
       </c>
       <c r="F3">
-        <v>1.081946683529981</v>
+        <v>1.049422016378388</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055533768733501</v>
+        <v>1.066086889809962</v>
       </c>
       <c r="J3">
-        <v>1.070976219761236</v>
+        <v>1.060567203314634</v>
       </c>
       <c r="K3">
-        <v>1.068134656960493</v>
+        <v>1.062968919585999</v>
       </c>
       <c r="L3">
-        <v>1.073713187149673</v>
+        <v>1.05650275164391</v>
       </c>
       <c r="M3">
-        <v>1.084436701632795</v>
+        <v>1.059459298850205</v>
       </c>
       <c r="N3">
-        <v>1.072497128835986</v>
+        <v>1.062073330392099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067274332777823</v>
+        <v>1.045761616556778</v>
       </c>
       <c r="D4">
-        <v>1.06633000166604</v>
+        <v>1.056666944318472</v>
       </c>
       <c r="E4">
-        <v>1.072066849455243</v>
+        <v>1.050744737646049</v>
       </c>
       <c r="F4">
-        <v>1.082979134664511</v>
+        <v>1.054394939220126</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055868855065068</v>
+        <v>1.068123694972017</v>
       </c>
       <c r="J4">
-        <v>1.071660313729014</v>
+        <v>1.064062998318955</v>
       </c>
       <c r="K4">
-        <v>1.068739609485971</v>
+        <v>1.066126369892742</v>
       </c>
       <c r="L4">
-        <v>1.074462900842979</v>
+        <v>1.06026699220384</v>
       </c>
       <c r="M4">
-        <v>1.085349824793511</v>
+        <v>1.063878366515078</v>
       </c>
       <c r="N4">
-        <v>1.073182194295665</v>
+        <v>1.0655740898263</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067656041891499</v>
+        <v>1.0476717567986</v>
       </c>
       <c r="D5">
-        <v>1.066634682012203</v>
+        <v>1.05819402577496</v>
       </c>
       <c r="E5">
-        <v>1.07243214994586</v>
+        <v>1.052526971593469</v>
       </c>
       <c r="F5">
-        <v>1.083412818872105</v>
+        <v>1.056450754748164</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05600920150832</v>
+        <v>1.068962066255075</v>
       </c>
       <c r="J5">
-        <v>1.071947385696139</v>
+        <v>1.065505649722995</v>
       </c>
       <c r="K5">
-        <v>1.06899342592022</v>
+        <v>1.06742911022223</v>
       </c>
       <c r="L5">
-        <v>1.074777501229377</v>
+        <v>1.061820465941602</v>
       </c>
       <c r="M5">
-        <v>1.085733224482051</v>
+        <v>1.065703725577977</v>
       </c>
       <c r="N5">
-        <v>1.073469673937911</v>
+        <v>1.067018789960808</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067720108864071</v>
+        <v>1.047990572791017</v>
       </c>
       <c r="D6">
-        <v>1.066685817922914</v>
+        <v>1.058448924643305</v>
       </c>
       <c r="E6">
-        <v>1.072493459362536</v>
+        <v>1.052824443753816</v>
       </c>
       <c r="F6">
-        <v>1.083485615601862</v>
+        <v>1.056793953024524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056032735666748</v>
+        <v>1.069101808533256</v>
       </c>
       <c r="J6">
-        <v>1.071995555949995</v>
+        <v>1.065746337196458</v>
       </c>
       <c r="K6">
-        <v>1.069036013311411</v>
+        <v>1.067646438314438</v>
       </c>
       <c r="L6">
-        <v>1.07483029024524</v>
+        <v>1.062079645357056</v>
       </c>
       <c r="M6">
-        <v>1.085797571217655</v>
+        <v>1.066008363333883</v>
       </c>
       <c r="N6">
-        <v>1.073517912599053</v>
+        <v>1.06725981923809</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.06727943478474</v>
+        <v>1.045787268761508</v>
       </c>
       <c r="D7">
-        <v>1.066334074247971</v>
+        <v>1.05668745097359</v>
       </c>
       <c r="E7">
-        <v>1.072071732375107</v>
+        <v>1.0507686718016</v>
       </c>
       <c r="F7">
-        <v>1.08298493097105</v>
+        <v>1.054422543191211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055870732435568</v>
+        <v>1.068134966488997</v>
       </c>
       <c r="J7">
-        <v>1.071664151639261</v>
+        <v>1.064082379184698</v>
       </c>
       <c r="K7">
-        <v>1.068743002974127</v>
+        <v>1.066143872303916</v>
       </c>
       <c r="L7">
-        <v>1.074467106816493</v>
+        <v>1.060287861705482</v>
       </c>
       <c r="M7">
-        <v>1.08535494966452</v>
+        <v>1.063902882007072</v>
       </c>
       <c r="N7">
-        <v>1.073186037656185</v>
+        <v>1.065593498215095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065434013067881</v>
+        <v>1.036288785022253</v>
       </c>
       <c r="D8">
-        <v>1.06486073048752</v>
+        <v>1.049096931636369</v>
       </c>
       <c r="E8">
-        <v>1.070305149300568</v>
+        <v>1.041907129917468</v>
       </c>
       <c r="F8">
-        <v>1.080889087447237</v>
+        <v>1.044209424343465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055189131096504</v>
+        <v>1.063939302586836</v>
       </c>
       <c r="J8">
-        <v>1.07027449754229</v>
+        <v>1.056894254233786</v>
       </c>
       <c r="K8">
-        <v>1.06751396333442</v>
+        <v>1.05965051887001</v>
       </c>
       <c r="L8">
-        <v>1.072944125505226</v>
+        <v>1.05254785646029</v>
       </c>
       <c r="M8">
-        <v>1.083500792061199</v>
+        <v>1.054822085152668</v>
       </c>
       <c r="N8">
-        <v>1.071794410091001</v>
+        <v>1.058395165302263</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062168546040504</v>
+        <v>1.018316886141789</v>
       </c>
       <c r="D9">
-        <v>1.062252427949546</v>
+        <v>1.034753518075554</v>
       </c>
       <c r="E9">
-        <v>1.067177271818839</v>
+        <v>1.025146661813757</v>
       </c>
       <c r="F9">
-        <v>1.077183815858336</v>
+        <v>1.024924384112938</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053971059045149</v>
+        <v>1.055896288744044</v>
       </c>
       <c r="J9">
-        <v>1.067808632961241</v>
+        <v>1.043239004831984</v>
       </c>
       <c r="K9">
-        <v>1.065331679782367</v>
+        <v>1.047306830124183</v>
       </c>
       <c r="L9">
-        <v>1.070241390601106</v>
+        <v>1.037844513839154</v>
       </c>
       <c r="M9">
-        <v>1.080217651094373</v>
+        <v>1.037625621305487</v>
       </c>
       <c r="N9">
-        <v>1.069325043699408</v>
+        <v>1.044720523880032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059981957731912</v>
+        <v>1.005346000893289</v>
       </c>
       <c r="D10">
-        <v>1.060505104877066</v>
+        <v>1.024420484141177</v>
       </c>
       <c r="E10">
-        <v>1.06508152414807</v>
+        <v>1.013057370152329</v>
       </c>
       <c r="F10">
-        <v>1.074704934417485</v>
+        <v>1.01103225857076</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053147377318359</v>
+        <v>1.050022985204049</v>
       </c>
       <c r="J10">
-        <v>1.066152849521768</v>
+        <v>1.033349107219678</v>
       </c>
       <c r="K10">
-        <v>1.063865375206194</v>
+        <v>1.038362386958507</v>
       </c>
       <c r="L10">
-        <v>1.068426337294965</v>
+        <v>1.027194805031211</v>
       </c>
       <c r="M10">
-        <v>1.078017715025328</v>
+        <v>1.025205138743051</v>
       </c>
       <c r="N10">
-        <v>1.06766690885753</v>
+        <v>1.03481658147873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059032756698699</v>
+        <v>0.9994523610340066</v>
       </c>
       <c r="D11">
-        <v>1.05974641492021</v>
+        <v>1.019731609139507</v>
       </c>
       <c r="E11">
-        <v>1.064171450579313</v>
+        <v>1.007566812878329</v>
       </c>
       <c r="F11">
-        <v>1.073629365575073</v>
+        <v>1.004726294112477</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052787909365476</v>
+        <v>1.047338784588736</v>
       </c>
       <c r="J11">
-        <v>1.065432978733627</v>
+        <v>1.028847940187579</v>
       </c>
       <c r="K11">
-        <v>1.063227662697323</v>
+        <v>1.034290768736879</v>
       </c>
       <c r="L11">
-        <v>1.067637166302906</v>
+        <v>1.022347427213852</v>
       </c>
       <c r="M11">
-        <v>1.077062355971542</v>
+        <v>1.019559626484616</v>
       </c>
       <c r="N11">
-        <v>1.0669460157703</v>
+        <v>1.030309022273154</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058679812412419</v>
+        <v>0.9972173309632553</v>
       </c>
       <c r="D12">
-        <v>1.059464283556549</v>
+        <v>1.017954549891706</v>
       </c>
       <c r="E12">
-        <v>1.063833009076167</v>
+        <v>1.00548509650767</v>
       </c>
       <c r="F12">
-        <v>1.073229510765094</v>
+        <v>1.002335836722917</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052653961068846</v>
+        <v>1.046318600889335</v>
       </c>
       <c r="J12">
-        <v>1.065165142979939</v>
+        <v>1.027139927027821</v>
       </c>
       <c r="K12">
-        <v>1.062990362070303</v>
+        <v>1.032745667818445</v>
       </c>
       <c r="L12">
-        <v>1.067343537883621</v>
+        <v>1.020507959837821</v>
       </c>
       <c r="M12">
-        <v>1.07670706687356</v>
+        <v>1.017418422196255</v>
       </c>
       <c r="N12">
-        <v>1.06667779965912</v>
+        <v>1.028598583538797</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058755536994096</v>
+        <v>0.9976989027429601</v>
       </c>
       <c r="D13">
-        <v>1.059524816283523</v>
+        <v>1.018337392787854</v>
       </c>
       <c r="E13">
-        <v>1.063905624156334</v>
+        <v>1.005933612673765</v>
       </c>
       <c r="F13">
-        <v>1.073315296565573</v>
+        <v>1.002850855489344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052682712769922</v>
+        <v>1.046538516033971</v>
       </c>
       <c r="J13">
-        <v>1.065222614851716</v>
+        <v>1.027507990855363</v>
       </c>
       <c r="K13">
-        <v>1.063041283229087</v>
+        <v>1.033078628611249</v>
       </c>
       <c r="L13">
-        <v>1.067406544717366</v>
+        <v>1.020904355058347</v>
       </c>
       <c r="M13">
-        <v>1.076783297034731</v>
+        <v>1.017879789573675</v>
       </c>
       <c r="N13">
-        <v>1.066735353147547</v>
+        <v>1.028967170059191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059003589789421</v>
+        <v>0.9992685750945238</v>
       </c>
       <c r="D14">
-        <v>1.059723100422126</v>
+        <v>1.019585458927117</v>
       </c>
       <c r="E14">
-        <v>1.064143483103669</v>
+        <v>1.007395624214177</v>
       </c>
       <c r="F14">
-        <v>1.073596320462586</v>
+        <v>1.004529708450427</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0527768458687</v>
+        <v>1.047254940535188</v>
       </c>
       <c r="J14">
-        <v>1.065410848439419</v>
+        <v>1.028707511483151</v>
       </c>
       <c r="K14">
-        <v>1.063208056075845</v>
+        <v>1.034163735815727</v>
       </c>
       <c r="L14">
-        <v>1.067612905035612</v>
+        <v>1.022196192430708</v>
       </c>
       <c r="M14">
-        <v>1.077032996414846</v>
+        <v>1.019383561159215</v>
       </c>
       <c r="N14">
-        <v>1.066923854048535</v>
+        <v>1.030168394143857</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059156374165467</v>
+        <v>1.000229487081579</v>
       </c>
       <c r="D15">
-        <v>1.059845227207817</v>
+        <v>1.020349640435639</v>
       </c>
       <c r="E15">
-        <v>1.064289982625692</v>
+        <v>1.00829069112993</v>
       </c>
       <c r="F15">
-        <v>1.073769423102103</v>
+        <v>1.005557580942472</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052834787823142</v>
+        <v>1.047693221951213</v>
       </c>
       <c r="J15">
-        <v>1.065526766356977</v>
+        <v>1.029441691118844</v>
       </c>
       <c r="K15">
-        <v>1.063310753721035</v>
+        <v>1.034827877297224</v>
       </c>
       <c r="L15">
-        <v>1.067739984574674</v>
+        <v>1.02298686424026</v>
       </c>
       <c r="M15">
-        <v>1.077186787675459</v>
+        <v>1.020304095596527</v>
       </c>
       <c r="N15">
-        <v>1.067039936582833</v>
+        <v>1.030903616398845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060044901866628</v>
+        <v>1.005730955261275</v>
       </c>
       <c r="D16">
-        <v>1.060555412094982</v>
+        <v>1.024726887966392</v>
       </c>
       <c r="E16">
-        <v>1.065141867176518</v>
+        <v>1.013416054459529</v>
       </c>
       <c r="F16">
-        <v>1.074776269191505</v>
+        <v>1.011444273829531</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053171174515823</v>
+        <v>1.050197994004267</v>
       </c>
       <c r="J16">
-        <v>1.066200563147686</v>
+        <v>1.033642961516576</v>
       </c>
       <c r="K16">
-        <v>1.063907638713095</v>
+        <v>1.038628185370124</v>
       </c>
       <c r="L16">
-        <v>1.068478642988244</v>
+        <v>1.027511251387333</v>
       </c>
       <c r="M16">
-        <v>1.078081059824516</v>
+        <v>1.025573847571616</v>
       </c>
       <c r="N16">
-        <v>1.067714690242269</v>
+        <v>1.035110853082435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060601604505842</v>
+        <v>1.009104872178068</v>
       </c>
       <c r="D17">
-        <v>1.061000328845234</v>
+        <v>1.02741306640395</v>
       </c>
       <c r="E17">
-        <v>1.065675529235069</v>
+        <v>1.016560019147971</v>
       </c>
       <c r="F17">
-        <v>1.075407241530764</v>
+        <v>1.015056069676643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05338142633641</v>
+        <v>1.051730111725162</v>
       </c>
       <c r="J17">
-        <v>1.066622435121914</v>
+        <v>1.036217604609534</v>
       </c>
       <c r="K17">
-        <v>1.064281296787898</v>
+        <v>1.040956931505755</v>
       </c>
       <c r="L17">
-        <v>1.068941110394129</v>
+        <v>1.030283790456564</v>
       </c>
       <c r="M17">
-        <v>1.078641264081827</v>
+        <v>1.0288051627823</v>
       </c>
       <c r="N17">
-        <v>1.06813716132309</v>
+        <v>1.0376891524639</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060926089382773</v>
+        <v>1.011046393980648</v>
       </c>
       <c r="D18">
-        <v>1.061259640284281</v>
+        <v>1.028959397958251</v>
       </c>
       <c r="E18">
-        <v>1.065986554930951</v>
+        <v>1.018369444568299</v>
       </c>
       <c r="F18">
-        <v>1.075775065780761</v>
+        <v>1.017135066297504</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053503791973589</v>
+        <v>1.052610309844724</v>
       </c>
       <c r="J18">
-        <v>1.066868226042268</v>
+        <v>1.037698480725123</v>
       </c>
       <c r="K18">
-        <v>1.064498976163734</v>
+        <v>1.04229630071062</v>
       </c>
       <c r="L18">
-        <v>1.069210547666449</v>
+        <v>1.031878455847708</v>
       </c>
       <c r="M18">
-        <v>1.078967754928798</v>
+        <v>1.030664438869944</v>
       </c>
       <c r="N18">
-        <v>1.068383301294744</v>
+        <v>1.039172131593431</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061036691542549</v>
+        <v>1.0117040392662</v>
       </c>
       <c r="D19">
-        <v>1.061348024890753</v>
+        <v>1.029483273850206</v>
       </c>
       <c r="E19">
-        <v>1.066092564458832</v>
+        <v>1.018982382139001</v>
       </c>
       <c r="F19">
-        <v>1.075900448833916</v>
+        <v>1.017839377690941</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053545469699059</v>
+        <v>1.052908206898607</v>
       </c>
       <c r="J19">
-        <v>1.066951987139652</v>
+        <v>1.038199971729519</v>
       </c>
       <c r="K19">
-        <v>1.064573153755228</v>
+        <v>1.042749858020019</v>
       </c>
       <c r="L19">
-        <v>1.069302366117606</v>
+        <v>1.032418475487371</v>
       </c>
       <c r="M19">
-        <v>1.079079034905804</v>
+        <v>1.031294193221668</v>
       </c>
       <c r="N19">
-        <v>1.068467181342494</v>
+        <v>1.039674334772576</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060541899473789</v>
+        <v>1.008745644955853</v>
       </c>
       <c r="D20">
-        <v>1.0609526143234</v>
+        <v>1.027127003730506</v>
       </c>
       <c r="E20">
-        <v>1.065618298306388</v>
+        <v>1.016225250972792</v>
       </c>
       <c r="F20">
-        <v>1.0753395660966</v>
+        <v>1.014671454000917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05335889633366</v>
+        <v>1.051567135583224</v>
       </c>
       <c r="J20">
-        <v>1.066577201251166</v>
+        <v>1.035943550198626</v>
       </c>
       <c r="K20">
-        <v>1.064241234687507</v>
+        <v>1.040709058618046</v>
       </c>
       <c r="L20">
-        <v>1.068891524364293</v>
+        <v>1.029988675160621</v>
       </c>
       <c r="M20">
-        <v>1.078581187135367</v>
+        <v>1.028461137760732</v>
       </c>
       <c r="N20">
-        <v>1.068091863215058</v>
+        <v>1.037414708864294</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058930554676831</v>
+        <v>0.9988076489427909</v>
       </c>
       <c r="D21">
-        <v>1.059664719575174</v>
+        <v>1.019218939449796</v>
       </c>
       <c r="E21">
-        <v>1.064073450676431</v>
+        <v>1.006966298983429</v>
       </c>
       <c r="F21">
-        <v>1.073513575418504</v>
+        <v>1.004036696273586</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052749137806148</v>
+        <v>1.047044627662901</v>
       </c>
       <c r="J21">
-        <v>1.065355430645214</v>
+        <v>1.028355306591026</v>
       </c>
       <c r="K21">
-        <v>1.06315895743358</v>
+        <v>1.033845127220846</v>
       </c>
       <c r="L21">
-        <v>1.067552150801214</v>
+        <v>1.021816883770035</v>
       </c>
       <c r="M21">
-        <v>1.076959478014816</v>
+        <v>1.018941993660816</v>
       </c>
       <c r="N21">
-        <v>1.066868357554706</v>
+        <v>1.029815689080387</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05791530015575</v>
+        <v>0.9922912869331635</v>
       </c>
       <c r="D22">
-        <v>1.058853113575681</v>
+        <v>1.014040090465768</v>
       </c>
       <c r="E22">
-        <v>1.063099826900441</v>
+        <v>1.000897890407759</v>
       </c>
       <c r="F22">
-        <v>1.072363526383903</v>
+        <v>0.9970689546533714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05236329233646</v>
+        <v>1.044066009378124</v>
       </c>
       <c r="J22">
-        <v>1.064584684329359</v>
+        <v>1.023373591848268</v>
       </c>
       <c r="K22">
-        <v>1.062476020071286</v>
+        <v>1.029338448817765</v>
       </c>
       <c r="L22">
-        <v>1.066707164412964</v>
+        <v>1.016451580874453</v>
       </c>
       <c r="M22">
-        <v>1.07593737435002</v>
+        <v>1.012698700605359</v>
       </c>
       <c r="N22">
-        <v>1.066096516690677</v>
+        <v>1.024826899731284</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058453711512544</v>
+        <v>0.9957727094285331</v>
       </c>
       <c r="D23">
-        <v>1.059283539333874</v>
+        <v>1.016806269110303</v>
       </c>
       <c r="E23">
-        <v>1.06361618587271</v>
+        <v>1.004139708363847</v>
       </c>
       <c r="F23">
-        <v>1.072973380021288</v>
+        <v>1.000791017854312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052568071411702</v>
+        <v>1.045658572729651</v>
       </c>
       <c r="J23">
-        <v>1.064993517604655</v>
+        <v>1.026035659808505</v>
       </c>
       <c r="K23">
-        <v>1.062838293985664</v>
+        <v>1.031746706946025</v>
       </c>
       <c r="L23">
-        <v>1.067155382414345</v>
+        <v>1.019318679019747</v>
       </c>
       <c r="M23">
-        <v>1.076479448304742</v>
+        <v>1.016034372214655</v>
       </c>
       <c r="N23">
-        <v>1.066505930556117</v>
+        <v>1.027492748133368</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060568878319769</v>
+        <v>1.008908045628678</v>
       </c>
       <c r="D24">
-        <v>1.060974175083184</v>
+        <v>1.027256326166525</v>
       </c>
       <c r="E24">
-        <v>1.065644159273341</v>
+        <v>1.01637659340752</v>
       </c>
       <c r="F24">
-        <v>1.075370146365139</v>
+        <v>1.01484533054727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053369077508626</v>
+        <v>1.051640818937072</v>
       </c>
       <c r="J24">
-        <v>1.066597641355213</v>
+        <v>1.036067447846119</v>
       </c>
       <c r="K24">
-        <v>1.064259337857751</v>
+        <v>1.040821120051285</v>
       </c>
       <c r="L24">
-        <v>1.068913931121412</v>
+        <v>1.030122094363819</v>
       </c>
       <c r="M24">
-        <v>1.078608334146102</v>
+        <v>1.028616666348878</v>
       </c>
       <c r="N24">
-        <v>1.068112332346396</v>
+        <v>1.037538782460658</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063014406919318</v>
+        <v>1.023124594439771</v>
       </c>
       <c r="D25">
-        <v>1.062928202432302</v>
+        <v>1.038587819626705</v>
       </c>
       <c r="E25">
-        <v>1.067987719455861</v>
+        <v>1.029629293469554</v>
       </c>
       <c r="F25">
-        <v>1.078143210574551</v>
+        <v>1.030078870900822</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054287995505564</v>
+        <v>1.058059716932688</v>
       </c>
       <c r="J25">
-        <v>1.068448183909369</v>
+        <v>1.04689802160348</v>
       </c>
       <c r="K25">
-        <v>1.065897847022674</v>
+        <v>1.050615249817838</v>
       </c>
       <c r="L25">
-        <v>1.070942412984806</v>
+        <v>1.04178442771084</v>
       </c>
       <c r="M25">
-        <v>1.0810683546196</v>
+        <v>1.042227529348859</v>
       </c>
       <c r="N25">
-        <v>1.06996550288324</v>
+        <v>1.048384736875039</v>
       </c>
     </row>
   </sheetData>
